--- a/public/emptyFile.xlsx
+++ b/public/emptyFile.xlsx
@@ -56,21 +56,9 @@
           <table:table-cell office:value-type="string" calcext:value-type="string">
             <text:p>ime</text:p>
           </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>email</text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>test test</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>
-              <text:a xlink:href="mailto:test123@gmail.com" xlink:type="simple">test123@gmail.com</text:a>
-            </text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="12">
+          <table:table-cell/>
+        </table:table-row>
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="13">
           <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -79,17 +67,7 @@
           </table:table-cell>
           <table:table-cell/>
         </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>test test</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>
-              <text:a xlink:href="mailto:test123@gmail.com" xlink:type="simple">test123@gmail.com</text:a>
-            </text:p>
-          </table:table-cell>
-        </table:table-row>
-        <table:table-row table:style-name="ro1" table:number-rows-repeated="20">
+        <table:table-row table:style-name="ro1" table:number-rows-repeated="21">
           <table:table-cell table:number-columns-repeated="2"/>
         </table:table-row>
         <table:table-row table:style-name="ro1">
@@ -97,16 +75,6 @@
             <text:p>frizer</text:p>
           </table:table-cell>
           <table:table-cell/>
-        </table:table-row>
-        <table:table-row table:style-name="ro1">
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>test test</text:p>
-          </table:table-cell>
-          <table:table-cell office:value-type="string" calcext:value-type="string">
-            <text:p>
-              <text:a xlink:href="mailto:test123@gmail.com" xlink:type="simple">test123@gmail.com</text:a>
-            </text:p>
-          </table:table-cell>
         </table:table-row>
       </table:table>
       <table:named-expressions/>
@@ -120,10 +88,10 @@
   <office:meta>
     <meta:creation-date>2017-10-20T23:41:04.964000000</meta:creation-date>
     <meta:generator>LibreOffice/7.0.6.2$Windows_X86_64 LibreOffice_project/144abb84a525d8e30c9dbbefa69cbbf2d8d4ae3b</meta:generator>
-    <dc:date>2021-08-26T23:32:28.468000000</dc:date>
-    <meta:editing-duration>PT47M40S</meta:editing-duration>
-    <meta:editing-cycles>15</meta:editing-cycles>
-    <meta:document-statistic meta:table-count="1" meta:cell-count="11" meta:object-count="0"/>
+    <dc:date>2021-09-04T20:39:03.172000000</dc:date>
+    <meta:editing-duration>PT48M2S</meta:editing-duration>
+    <meta:editing-cycles>18</meta:editing-cycles>
+    <meta:document-statistic meta:table-count="1" meta:cell-count="4" meta:object-count="0"/>
   </office:meta>
 </office:document-meta>
 </file>
@@ -134,15 +102,15 @@
     <config:config-item-set config:name="ooo:view-settings">
       <config:config-item config:name="VisibleAreaTop" config:type="int">0</config:config-item>
       <config:config-item config:name="VisibleAreaLeft" config:type="int">0</config:config-item>
-      <config:config-item config:name="VisibleAreaWidth" config:type="int">11518</config:config-item>
-      <config:config-item config:name="VisibleAreaHeight" config:type="int">17610</config:config-item>
+      <config:config-item config:name="VisibleAreaWidth" config:type="int">5445</config:config-item>
+      <config:config-item config:name="VisibleAreaHeight" config:type="int">17159</config:config-item>
       <config:config-item-map-indexed config:name="Views">
         <config:config-item-map-entry>
           <config:config-item config:name="ViewId" config:type="string">view1</config:config-item>
           <config:config-item-map-named config:name="Tables">
             <config:config-item-map-entry config:name="Sheet1">
               <config:config-item config:name="CursorPositionX" config:type="int">1</config:config-item>
-              <config:config-item config:name="CursorPositionY" config:type="int">39</config:config-item>
+              <config:config-item config:name="CursorPositionY" config:type="int">1</config:config-item>
               <config:config-item config:name="HorizontalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="VerticalSplitMode" config:type="short">0</config:config-item>
               <config:config-item config:name="HorizontalSplitPosition" config:type="int">0</config:config-item>
@@ -160,7 +128,7 @@
             </config:config-item-map-entry>
           </config:config-item-map-named>
           <config:config-item config:name="ActiveTable" config:type="string">Sheet1</config:config-item>
-          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">957</config:config-item>
+          <config:config-item config:name="HorizontalScrollbarWidth" config:type="int">1856</config:config-item>
           <config:config-item config:name="ZoomType" config:type="short">0</config:config-item>
           <config:config-item config:name="ZoomValue" config:type="int">100</config:config-item>
           <config:config-item config:name="PageViewZoomValue" config:type="int">60</config:config-item>
@@ -367,9 +335,9 @@
         </style:region-left>
         <style:region-right>
           <text:p>
-            <text:date style:data-style-name="N2" text:date-value="2021-08-26">00/00/0000</text:date>
+            <text:date style:data-style-name="N2" text:date-value="2021-09-04">00/00/0000</text:date>
             , 
-            <text:time style:data-style-name="N2" text:time-value="23:49:10.288000000">00:00:00</text:time>
+            <text:time style:data-style-name="N2" text:time-value="20:38:58.494000000">00:00:00</text:time>
           </text:p>
         </style:region-right>
       </style:header>
